--- a/QuestionsFinancedeMarche12.xlsx
+++ b/QuestionsFinancedeMarche12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{940DE619-6CE9-46EE-AE58-BF49F1C53D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7459A7A5-0808-4241-9D8B-06E4886B306A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="106">
   <si>
     <t>Description</t>
   </si>
@@ -391,6 +391,21 @@
   <si>
     <t xml:space="preserve">Parmis ces graphes suivants, lequel représente pour une vente de call l'évolution du profit net en fonction du prix du sous-jacent : </t>
   </si>
+  <si>
+    <t xml:space="preserve">Parmis ces stratégies suivantes, laquelle est toujours delta neutre, gamma positive : </t>
+  </si>
+  <si>
+    <t>Long Call,Long Put, Long Straddle, Long Strangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Long Straddle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un Long Call a un delta positif (compris entre 0 et 1) 
+Un Long Put a un delta négatif (compris entre -1 et 0) 
+Un Straddle est constitué d'un long call et d'un long put de même strike.
+Un Strangle est constitué d'un long call strike K1 et d'un long put strike K2 avec K1 &lt; K2. </t>
+  </si>
 </sst>
 </file>
 
@@ -399,11 +414,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,46 +545,50 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -587,13 +613,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>139699</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>317501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1005792</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>857251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -637,13 +663,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4641850</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>7302500</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -687,13 +713,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5296146</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>9600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -976,10 +1002,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1034,46 +1060,42 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.5">
+    <row r="3" spans="1:7" ht="16" customHeight="1">
       <c r="B3" s="1" t="str">
         <f>"Question_"&amp;ROW(A3)-1</f>
         <v>Question_2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.5">
+      <c r="B4" s="1" t="str">
+        <f>"Question_"&amp;ROW(A4)-1</f>
+        <v>Question_3</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B9" si="0">"Question_"&amp;ROW(A4)-1</f>
-        <v>Question_3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>98</v>
-      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="14.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B5:B10" si="0">"Question_"&amp;ROW(A5)-1</f>
         <v>Question_4</v>
       </c>
       <c r="C5" t="s">
@@ -1082,9 +1104,15 @@
       <c r="D5" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
+      <c r="E5" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="14.5">
       <c r="A6" s="1"/>
@@ -1109,17 +1137,14 @@
         <v>Question_6</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="14.5">
       <c r="A8" s="1"/>
@@ -1128,53 +1153,67 @@
         <v>Question_7</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Question_8</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.5">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="str">
-        <f>"Question_"&amp;ROW(A10)-1</f>
+        <f t="shared" si="0"/>
         <v>Question_9</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="12" spans="1:7" ht="95" customHeight="1"/>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="B13" t="s">
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="str">
+        <f>"Question_"&amp;ROW(A11)-1</f>
+        <v>Question_10</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="13" spans="1:7" ht="95" customHeight="1"/>
+    <row r="14" spans="1:7" ht="15" customHeight="1">
+      <c r="B14" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1">
-      <c r="B14" s="15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
@@ -1182,12 +1221,17 @@
         <v>97</v>
       </c>
     </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1">
+      <c r="B16" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B15" display="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Pyt" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" display="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Pyt" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId1" display="https://github.com/julien-mcx/StreamlitApplication/blob/main/CallOK.JPG" xr:uid="{F8E2D493-C495-48FE-99D8-E8E5CACCDB58}"/>
+    <hyperlink ref="B16" display="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Pyt" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" display="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Pyt" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G5" r:id="rId1" display="https://github.com/julien-mcx/StreamlitApplication/blob/main/CallOK.JPG" xr:uid="{F8E2D493-C495-48FE-99D8-E8E5CACCDB58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>

--- a/QuestionsFinancedeMarche12.xlsx
+++ b/QuestionsFinancedeMarche12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7459A7A5-0808-4241-9D8B-06E4886B306A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3164C806-C236-4D42-A3B3-2A733D5ADCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="108">
   <si>
     <t>Description</t>
   </si>
@@ -380,12 +380,6 @@
     <t>\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\Put.JPG</t>
   </si>
   <si>
-    <t>images/Question_6_Options/CallOK.JPG, images/Question_6_Options/Put.JPG</t>
-  </si>
-  <si>
-    <t>images/Question_6_Options/CallOK.JPG</t>
-  </si>
-  <si>
     <t xml:space="preserve">Parmis ces graphes suivants, lequel représente pour un achat de call l'évolution du profit net en fonction du prix du sous-jacent : </t>
   </si>
   <si>
@@ -393,9 +387,6 @@
   </si>
   <si>
     <t xml:space="preserve">Parmis ces stratégies suivantes, laquelle est toujours delta neutre, gamma positive : </t>
-  </si>
-  <si>
-    <t>Long Call,Long Put, Long Straddle, Long Strangle</t>
   </si>
   <si>
     <t xml:space="preserve"> Long Straddle</t>
@@ -405,6 +396,21 @@
 Un Long Put a un delta négatif (compris entre -1 et 0) 
 Un Straddle est constitué d'un long call et d'un long put de même strike.
 Un Strangle est constitué d'un long call strike K1 et d'un long put strike K2 avec K1 &lt; K2. </t>
+  </si>
+  <si>
+    <t>Choose, Long Call,Long Put, Long Straddle, Long Strangle</t>
+  </si>
+  <si>
+    <t>images/Options/LongCall.JPG</t>
+  </si>
+  <si>
+    <t>images/Options/ShortCall.JPG</t>
+  </si>
+  <si>
+    <t>images/Options/LongCall.JPG, images/Options/LongPut.JPG</t>
+  </si>
+  <si>
+    <t>images/Options/LongCall.JPG, images/Options/ShortCall.JPG</t>
   </si>
 </sst>
 </file>
@@ -547,7 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -589,6 +595,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1004,8 +1011,8 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1066,16 +1073,16 @@
         <v>Question_2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.5">
@@ -1084,13 +1091,20 @@
         <v>Question_3</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="14.5">
       <c r="A5" s="1"/>
@@ -1099,19 +1113,19 @@
         <v>Question_4</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
         <v>95</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>49</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.5">
@@ -1121,7 +1135,7 @@
         <v>Question_5</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
         <v>95</v>
@@ -1137,7 +1151,7 @@
         <v>Question_6</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
         <v>95</v>

--- a/QuestionsFinancedeMarche12.xlsx
+++ b/QuestionsFinancedeMarche12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3164C806-C236-4D42-A3B3-2A733D5ADCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7B6C66-46FF-4344-97E8-551BA0DF1F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/QuestionsFinancedeMarche12.xlsx
+++ b/QuestionsFinancedeMarche12.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7B6C66-46FF-4344-97E8-551BA0DF1F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F006A8-E489-489D-AE6C-953A6329B98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="5" r:id="rId1"/>
-    <sheet name="FuturesForwards" sheetId="1" r:id="rId2"/>
-    <sheet name="ToClassify" sheetId="4" r:id="rId3"/>
-    <sheet name="Fixed-income" sheetId="2" r:id="rId4"/>
-    <sheet name="Commentaires  " sheetId="3" r:id="rId5"/>
+    <sheet name="Macroéconomie " sheetId="6" r:id="rId2"/>
+    <sheet name="FuturesForwards" sheetId="1" r:id="rId3"/>
+    <sheet name="ToClassify" sheetId="4" r:id="rId4"/>
+    <sheet name="Fixed-income" sheetId="2" r:id="rId5"/>
+    <sheet name="Commentaires  " sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="109">
   <si>
     <t>Description</t>
   </si>
@@ -392,12 +393,6 @@
     <t xml:space="preserve"> Long Straddle</t>
   </si>
   <si>
-    <t xml:space="preserve">Un Long Call a un delta positif (compris entre 0 et 1) 
-Un Long Put a un delta négatif (compris entre -1 et 0) 
-Un Straddle est constitué d'un long call et d'un long put de même strike.
-Un Strangle est constitué d'un long call strike K1 et d'un long put strike K2 avec K1 &lt; K2. </t>
-  </si>
-  <si>
     <t>Choose, Long Call,Long Put, Long Straddle, Long Strangle</t>
   </si>
   <si>
@@ -411,6 +406,16 @@
   </si>
   <si>
     <t>images/Options/LongCall.JPG, images/Options/ShortCall.JPG</t>
+  </si>
+  <si>
+    <t>Un Long Call a un delta positif (compris entre 0 et 1) '\n'
+Un Long Put a un delta négatif (compris entre -1 et 0) '\n'
+Un Straddle est constitué d'un long call et d'un long put de même strike. Le delta d'un long call est généralement proche de 0.5. Le delta d'un long put est généralement proche de 0.5. Ainsi la position est delta neutre. De plus, le gamma d'un call est positif et le gamma d'un put est positif. Ainsi la position est gamma positive. '\n'
+Un Strangle est constitué d'un long call strike K1 et d'un long put strike K2 avec K1 &lt; K2. Le delta ne vaut pas toujours 0 (cf prochaines questions)</t>
+  </si>
+  <si>
+    <t>D'après ce screenshot Bloomberg, que devrait-être le delta de ce call sur une action Amazon Inc ne payant pas de dividendes : 
+' images/Options/LongCall.JPG</t>
   </si>
 </sst>
 </file>
@@ -420,25 +425,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -525,6 +516,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -551,51 +550,53 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -620,13 +621,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>139699</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>317501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1005792</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>857251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -670,13 +671,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4641850</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>7302500</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -720,13 +721,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5296146</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1009,10 +1010,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1023,31 +1024,31 @@
     <col min="4" max="4" width="111.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="23" customFormat="1" ht="14.5">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="87">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="406">
+      <c r="A2" s="22" t="s">
         <v>89</v>
       </c>
       <c r="B2" s="1" t="str">
@@ -1072,66 +1073,58 @@
         <f>"Question_"&amp;ROW(A3)-1</f>
         <v>Question_2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>103</v>
+      <c r="D3" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.5">
+      <c r="F3" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" customHeight="1">
       <c r="B4" s="1" t="str">
         <f>"Question_"&amp;ROW(A4)-1</f>
         <v>Question_3</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5">
+      <c r="B5" s="1" t="str">
+        <f>"Question_"&amp;ROW(A5)-1</f>
+        <v>Question_4</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="E5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="str">
-        <f t="shared" ref="B5:B10" si="0">"Question_"&amp;ROW(A5)-1</f>
-        <v>Question_4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="21" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B6:B11" si="0">"Question_"&amp;ROW(A6)-1</f>
         <v>Question_5</v>
       </c>
       <c r="C6" t="s">
@@ -1140,9 +1133,15 @@
       <c r="D6" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
+      <c r="E6" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="14.5">
       <c r="A7" s="1"/>
@@ -1156,9 +1155,9 @@
       <c r="D7" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="14.5">
       <c r="A8" s="1"/>
@@ -1167,17 +1166,14 @@
         <v>Question_7</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" ht="14.5">
       <c r="A9" s="1"/>
@@ -1186,53 +1182,67 @@
         <v>Question_8</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Question_9</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.5">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="str">
-        <f>"Question_"&amp;ROW(A11)-1</f>
+        <f t="shared" si="0"/>
         <v>Question_10</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="13" spans="1:7" ht="95" customHeight="1"/>
-    <row r="14" spans="1:7" ht="15" customHeight="1">
-      <c r="B14" t="s">
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="str">
+        <f>"Question_"&amp;ROW(A12)-1</f>
+        <v>Question_11</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="95" customHeight="1"/>
+    <row r="15" spans="1:7" ht="15" customHeight="1">
+      <c r="B15" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1">
-      <c r="B15" s="15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
@@ -1240,12 +1250,17 @@
         <v>97</v>
       </c>
     </row>
+    <row r="17" spans="2:2" ht="15" customHeight="1">
+      <c r="B17" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B16" display="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Pyt" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B15" display="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Pyt" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G5" r:id="rId1" display="https://github.com/julien-mcx/StreamlitApplication/blob/main/CallOK.JPG" xr:uid="{F8E2D493-C495-48FE-99D8-E8E5CACCDB58}"/>
+    <hyperlink ref="B17" display="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Pyt" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B16" display="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\images\Question_6_Options\CallOK.JPG,\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Pyt" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G6" r:id="rId1" display="https://github.com/julien-mcx/StreamlitApplication/blob/main/CallOK.JPG" xr:uid="{F8E2D493-C495-48FE-99D8-E8E5CACCDB58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -1254,6 +1269,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB057B36-46C8-4EF7-8AE6-DCB2404B62B7}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
@@ -2438,7 +2501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -2703,7 +2766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2844,7 +2907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>

--- a/QuestionsFinancedeMarche12.xlsx
+++ b/QuestionsFinancedeMarche12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F006A8-E489-489D-AE6C-953A6329B98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6110424F-1FB3-4096-8110-E485A700E6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="111">
   <si>
     <t>Description</t>
   </si>
@@ -416,6 +416,12 @@
   <si>
     <t>D'après ce screenshot Bloomberg, que devrait-être le delta de ce call sur une action Amazon Inc ne payant pas de dividendes : 
 ' images/Options/LongCall.JPG</t>
+  </si>
+  <si>
+    <t>ImageinQuestion</t>
+  </si>
+  <si>
+    <t>images/Options/Bloomberg/Amazon_call.png</t>
   </si>
 </sst>
 </file>
@@ -552,7 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -592,6 +598,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1012,8 +1019,8 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1024,31 +1031,31 @@
     <col min="4" max="4" width="111.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="23" customFormat="1" ht="14.5">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" s="24" customFormat="1" ht="14.5">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="406">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>89</v>
       </c>
       <c r="B2" s="1" t="str">
@@ -1095,10 +1102,13 @@
         <v>108</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="20"/>
+      <c r="G4" s="21" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="14.5">
       <c r="B5" s="1" t="str">
@@ -1117,7 +1127,7 @@
       <c r="F5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="22" t="s">
         <v>106</v>
       </c>
     </row>

--- a/QuestionsFinancedeMarche12.xlsx
+++ b/QuestionsFinancedeMarche12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6110424F-1FB3-4096-8110-E485A700E6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EAC1A3-F6A4-47D1-AEAD-2C9FC3AA9037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,7 +421,7 @@
     <t>ImageinQuestion</t>
   </si>
   <si>
-    <t>images/Options/Bloomberg/Amazon_call.png</t>
+    <t>images/Bloomberg/Amazon_call.png</t>
   </si>
 </sst>
 </file>
@@ -1019,8 +1019,8 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/QuestionsFinancedeMarche12.xlsx
+++ b/QuestionsFinancedeMarche12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EAC1A3-F6A4-47D1-AEAD-2C9FC3AA9037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7111FAB-2E83-48B3-A5BD-193AC0037CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="113">
   <si>
     <t>Description</t>
   </si>
@@ -414,14 +414,19 @@
 Un Strangle est constitué d'un long call strike K1 et d'un long put strike K2 avec K1 &lt; K2. Le delta ne vaut pas toujours 0 (cf prochaines questions)</t>
   </si>
   <si>
-    <t>D'après ce screenshot Bloomberg, que devrait-être le delta de ce call sur une action Amazon Inc ne payant pas de dividendes : 
-' images/Options/LongCall.JPG</t>
-  </si>
-  <si>
-    <t>ImageinQuestion</t>
+    <t xml:space="preserve">D'après ce screenshot Bloomberg, que devrait-être le delta de ce call sur une action Amazon Inc ne payant pas de dividendes : </t>
   </si>
   <si>
     <t>images/Bloomberg/Amazon_call.png</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>132.21, 132.21, 92/360, 0.33532, 0.05363</t>
+  </si>
+  <si>
+    <t>ImageinQuestion_pricing</t>
   </si>
 </sst>
 </file>
@@ -1017,10 +1022,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1031,7 +1036,7 @@
     <col min="4" max="4" width="111.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="24" customFormat="1" ht="14.5">
+    <row r="1" spans="1:8" s="24" customFormat="1" ht="14.5">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1053,8 +1058,11 @@
       <c r="G1" s="24" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="406">
+      <c r="H1" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="406">
       <c r="A2" s="23" t="s">
         <v>89</v>
       </c>
@@ -1075,7 +1083,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1">
+    <row r="3" spans="1:8" ht="16" customHeight="1">
       <c r="B3" s="1" t="str">
         <f>"Question_"&amp;ROW(A3)-1</f>
         <v>Question_2</v>
@@ -1093,7 +1101,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" customHeight="1">
+    <row r="4" spans="1:8" ht="16" customHeight="1">
       <c r="B4" s="1" t="str">
         <f>"Question_"&amp;ROW(A4)-1</f>
         <v>Question_3</v>
@@ -1102,15 +1110,18 @@
         <v>108</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="20"/>
       <c r="G4" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.5">
+        <v>109</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.5">
       <c r="B5" s="1" t="str">
         <f>"Question_"&amp;ROW(A5)-1</f>
         <v>Question_4</v>
@@ -1131,7 +1142,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.5">
+    <row r="6" spans="1:8" ht="14.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="str">
         <f t="shared" ref="B6:B11" si="0">"Question_"&amp;ROW(A6)-1</f>
@@ -1153,7 +1164,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.5">
+    <row r="7" spans="1:8" ht="14.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1169,7 +1180,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="14.5">
+    <row r="8" spans="1:8" ht="14.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1185,7 +1196,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="14.5">
+    <row r="9" spans="1:8" ht="14.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1204,7 +1215,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.5">
+    <row r="10" spans="1:8" ht="14.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1223,7 +1234,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1239,7 +1250,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.5">
+    <row r="12" spans="1:8" ht="14.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="str">
         <f>"Question_"&amp;ROW(A12)-1</f>
@@ -1249,13 +1260,13 @@
       <c r="F12" s="18"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="95" customHeight="1"/>
-    <row r="15" spans="1:7" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="95" customHeight="1"/>
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="B15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="B16" s="15" t="s">
         <v>97</v>
       </c>

--- a/QuestionsFinancedeMarche12.xlsx
+++ b/QuestionsFinancedeMarche12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7111FAB-2E83-48B3-A5BD-193AC0037CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AEB3C4-7FF4-44FD-A207-76C9F70CF440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
   <si>
     <t>Description</t>
   </si>
@@ -423,10 +423,13 @@
     <t>Parameters</t>
   </si>
   <si>
-    <t>132.21, 132.21, 92/360, 0.33532, 0.05363</t>
-  </si>
-  <si>
     <t>ImageinQuestion_pricing</t>
+  </si>
+  <si>
+    <t>132.21, 132.21, 92/360, 0.33532, 0.05363, 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La bonne réponse est proche de 50 car il s'agit d'un call ATM. Cependant via mon pricer, je trouve : </t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1027,8 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1110,15 +1113,19 @@
         <v>108</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="20"/>
+        <v>111</v>
+      </c>
+      <c r="E4" s="5">
+        <v>50</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="G4" s="21" t="s">
         <v>109</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.5">

--- a/QuestionsFinancedeMarche12.xlsx
+++ b/QuestionsFinancedeMarche12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad-its.credit-agricole.fr\dfs\HOMEDIRS\AMUNDI\michoux\Desktop\Personnel\Projets Python\Questions d’entretiens en Finance de Marché\versiongithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AEB3C4-7FF4-44FD-A207-76C9F70CF440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB849E6-5C07-43CC-9D7D-EA572DEE2669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,10 +426,10 @@
     <t>ImageinQuestion_pricing</t>
   </si>
   <si>
-    <t>132.21, 132.21, 92/360, 0.33532, 0.05363, 10</t>
-  </si>
-  <si>
     <t xml:space="preserve">La bonne réponse est proche de 50 car il s'agit d'un call ATM. Cependant via mon pricer, je trouve : </t>
+  </si>
+  <si>
+    <t>132.21, 132.21,0.25555555555, 0.33532, 0.05363, 10</t>
   </si>
 </sst>
 </file>
@@ -1027,8 +1027,8 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1119,13 +1119,13 @@
         <v>50</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>109</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.5">
